--- a/Dados_ResItupararanga/dados.xlsx
+++ b/Dados_ResItupararanga/dados.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\5-Semestre\QTA\P3\Dados_ResItupararanga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\5-Semestre\QTA\P3\QTA-P3-ResItupararanga\Dados_ResItupararanga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93107D79-7536-4DFF-AD45-77B3AE0517FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A5940-ACE6-43F9-A605-0F0422455374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="8688" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3906" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qualagua_C_62510060" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">qualagua_C_62510060!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -53,6 +64,9 @@
   </si>
   <si>
     <t>IQA</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -536,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,6 +558,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -706,10 +721,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>qualagua_C_62510060!$A$2:$A$125</c:f>
+              <c:f>qualagua_C_62510060!$A$54:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>40500</c:v>
                 </c:pt>
@@ -732,354 +747,195 @@
                   <c:v>40120</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40120</c:v>
+                  <c:v>40080</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40080</c:v>
+                  <c:v>40022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40080</c:v>
+                  <c:v>39954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40022</c:v>
+                  <c:v>39875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40022</c:v>
+                  <c:v>39826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39954</c:v>
+                  <c:v>39755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39954</c:v>
+                  <c:v>39715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39875</c:v>
+                  <c:v>39653</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39875</c:v>
+                  <c:v>39597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39826</c:v>
+                  <c:v>39511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39826</c:v>
+                  <c:v>39457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39755</c:v>
+                  <c:v>39391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39755</c:v>
+                  <c:v>39351</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39715</c:v>
+                  <c:v>39289</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39715</c:v>
+                  <c:v>39224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39653</c:v>
+                  <c:v>39147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39653</c:v>
+                  <c:v>39093</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39597</c:v>
+                  <c:v>39034</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39597</c:v>
+                  <c:v>38987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39511</c:v>
+                  <c:v>38916</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39511</c:v>
+                  <c:v>38839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39457</c:v>
+                  <c:v>38783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39457</c:v>
+                  <c:v>38729</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39391</c:v>
+                  <c:v>38672</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39391</c:v>
+                  <c:v>38623</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39351</c:v>
+                  <c:v>38552</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39351</c:v>
+                  <c:v>38475</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39289</c:v>
+                  <c:v>38419</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39289</c:v>
+                  <c:v>38365</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39224</c:v>
+                  <c:v>38308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39224</c:v>
+                  <c:v>38245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39147</c:v>
+                  <c:v>38188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39147</c:v>
+                  <c:v>38111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39093</c:v>
+                  <c:v>38069</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39093</c:v>
+                  <c:v>38001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39034</c:v>
+                  <c:v>37937</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39034</c:v>
+                  <c:v>37873</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38987</c:v>
+                  <c:v>37824</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38987</c:v>
+                  <c:v>37637</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38916</c:v>
+                  <c:v>37579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>38916</c:v>
+                  <c:v>37517</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38839</c:v>
+                  <c:v>37460</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38839</c:v>
+                  <c:v>37383</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38783</c:v>
+                  <c:v>37334</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38783</c:v>
+                  <c:v>37286</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38729</c:v>
+                  <c:v>37208</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>38729</c:v>
+                  <c:v>37145</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38672</c:v>
+                  <c:v>37103</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38672</c:v>
+                  <c:v>37019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38623</c:v>
+                  <c:v>36970</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38623</c:v>
+                  <c:v>36900</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38552</c:v>
+                  <c:v>36852</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38552</c:v>
+                  <c:v>36788</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38475</c:v>
+                  <c:v>36725</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>38475</c:v>
+                  <c:v>36648</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38419</c:v>
+                  <c:v>36599</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38419</c:v>
+                  <c:v>36529</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38365</c:v>
+                  <c:v>36474</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>38365</c:v>
+                  <c:v>36411</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38308</c:v>
+                  <c:v>36368</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38308</c:v>
+                  <c:v>36284</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>38245</c:v>
+                  <c:v>36221</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38245</c:v>
+                  <c:v>36187</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>38188</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>38188</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>38111</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>38111</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>38069</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>38069</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>38001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>38001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>37937</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>37937</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>37873</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>37873</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>37824</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>37824</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>37747</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>37637</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>37637</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>37579</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>37579</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>37517</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>37517</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>37460</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>37460</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>37383</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>37383</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>37334</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>37334</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>37286</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>37286</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>37208</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>37208</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>37145</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>37145</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>37103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>37103</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>37019</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>37019</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>36970</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>36970</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>36900</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>36900</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>36852</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>36788</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>36725</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>36648</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>36599</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>36529</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>36474</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>36411</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>36368</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>36284</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>36221</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>36187</c:v>
-                </c:pt>
-                <c:pt idx="123">
                   <c:v>36129</c:v>
                 </c:pt>
               </c:numCache>
@@ -1087,10 +943,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qualagua_C_62510060!$K$2:$K$125</c:f>
+              <c:f>qualagua_C_62510060!$K$54:$K$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -1113,354 +969,195 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>82</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>82</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="123">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -2223,16 +1920,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2557,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2576,10 +2273,11 @@
     <col min="9" max="9" width="10.734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1015625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="1"/>
+    <col min="12" max="12" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2614,18 +2312,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>40500</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>43797</v>
       </c>
       <c r="B2" s="1">
-        <v>21.8</v>
+        <v>23.3</v>
       </c>
       <c r="C2" s="1">
-        <v>7.3</v>
+        <v>7.69</v>
       </c>
       <c r="D2" s="1">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -2634,570 +2332,573 @@
         <v>8.1</v>
       </c>
       <c r="G2" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>18.75</v>
       </c>
       <c r="I2" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J2" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="K2" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>40444</v>
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>43727</v>
       </c>
       <c r="B3" s="1">
-        <v>21.1</v>
+        <v>22.5</v>
       </c>
       <c r="C3" s="1">
-        <v>6.9</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D3" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="G3" s="1">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I3" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="1">
         <v>0.5</v>
       </c>
-      <c r="K3" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>40386</v>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>43656</v>
       </c>
       <c r="B4" s="1">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="C4" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1">
         <v>7.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1">
-        <v>13</v>
-      </c>
       <c r="I4" s="1">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="J4" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K4" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>40318</v>
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>43601</v>
       </c>
       <c r="B5" s="1">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="C5" s="1">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="D5" s="1">
-        <v>2.5</v>
+        <v>3.46</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="G5" s="1">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I5" s="1">
         <v>0.02</v>
       </c>
       <c r="J5" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K5" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>40239</v>
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>43531</v>
       </c>
       <c r="B6" s="1">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.3</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B7" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.49</v>
+      </c>
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>54</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>40190</v>
-      </c>
-      <c r="B7" s="1">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="G7" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>43433</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>40120</v>
-      </c>
-      <c r="B8" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>8.1</v>
       </c>
       <c r="G8" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>29</v>
+        <v>1.25</v>
       </c>
       <c r="I8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>43363</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.02</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>43174</v>
+      </c>
+      <c r="B12" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>43116</v>
+      </c>
+      <c r="B13" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>43067</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1">
+        <v>41.25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>42999</v>
+      </c>
+      <c r="B15" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>42929</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="1">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.5</v>
       </c>
-      <c r="K8" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>40120</v>
-      </c>
-      <c r="B9" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="C17" s="1">
         <v>7.5</v>
       </c>
-      <c r="D9" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>64</v>
-      </c>
-      <c r="H9" s="1">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="D17" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.5</v>
       </c>
-      <c r="K9" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>40080</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>80</v>
-      </c>
-      <c r="H10" s="1">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>40080</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G11" s="1">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>40022</v>
-      </c>
-      <c r="B12" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1">
-        <v>176</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>40022</v>
-      </c>
-      <c r="B13" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>84</v>
-      </c>
-      <c r="H13" s="1">
-        <v>176</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>39954</v>
-      </c>
-      <c r="B14" s="1">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G14" s="1">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="K14" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>39954</v>
-      </c>
-      <c r="B15" s="1">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G15" s="1">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="K15" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>39875</v>
-      </c>
-      <c r="B16" s="1">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K16" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>39875</v>
-      </c>
-      <c r="B17" s="1">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K17" s="1">
-        <v>85</v>
+      <c r="K17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>39826</v>
+      <c r="A18" s="3">
+        <v>42808</v>
       </c>
       <c r="B18" s="1">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="C18" s="1">
-        <v>7.4</v>
+        <v>7.83</v>
       </c>
       <c r="D18" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1">
         <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>57</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>0.02</v>
@@ -3205,54 +2906,54 @@
       <c r="J18" s="1">
         <v>0.5</v>
       </c>
-      <c r="K18" s="1">
-        <v>91</v>
+      <c r="K18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>39826</v>
+      <c r="A19" s="3">
+        <v>42747</v>
       </c>
       <c r="B19" s="1">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="C19" s="1">
-        <v>7.4</v>
+        <v>8.64</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="G19" s="1">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="I19" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>91</v>
+        <v>0.44</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>39755</v>
+      <c r="A20" s="3">
+        <v>42698</v>
       </c>
       <c r="B20" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>6.8</v>
+        <v>8.23</v>
       </c>
       <c r="D20" s="1">
         <v>4.3</v>
@@ -3261,118 +2962,118 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="I20" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="1">
-        <v>92</v>
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>39755</v>
+      <c r="A21" s="3">
+        <v>42635</v>
       </c>
       <c r="B21" s="1">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="C21" s="1">
-        <v>6.8</v>
+        <v>7.98</v>
       </c>
       <c r="D21" s="1">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G21" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I21" s="1">
         <v>0.02</v>
       </c>
       <c r="J21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="1">
-        <v>92</v>
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>39715</v>
+      <c r="A22" s="3">
+        <v>42570</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="G22" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1">
-        <v>9700</v>
+        <v>3.75</v>
       </c>
       <c r="I22" s="1">
         <v>0.02</v>
       </c>
       <c r="J22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="1">
-        <v>63</v>
+        <v>0.43</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>39715</v>
+      <c r="A23" s="3">
+        <v>42507</v>
       </c>
       <c r="B23" s="1">
-        <v>20</v>
+        <v>22.1</v>
       </c>
       <c r="C23" s="1">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D23" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1">
         <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1">
-        <v>62</v>
-      </c>
-      <c r="H23" s="1">
-        <v>9700</v>
       </c>
       <c r="I23" s="1">
         <v>0.02</v>
@@ -3380,1183 +3081,1186 @@
       <c r="J23" s="1">
         <v>0.5</v>
       </c>
-      <c r="K23" s="1">
-        <v>64</v>
+      <c r="K23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>39653</v>
+      <c r="A24" s="3">
+        <v>42444</v>
       </c>
       <c r="B24" s="1">
-        <v>18</v>
+        <v>26.1</v>
       </c>
       <c r="C24" s="1">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>126</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>42395</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>119</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>42256</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>84</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>42208</v>
+      </c>
+      <c r="B27" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C27" s="1">
         <v>7.8</v>
       </c>
-      <c r="G24" s="1">
-        <v>57</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="K24" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
-        <v>39653</v>
-      </c>
-      <c r="B25" s="1">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G25" s="1">
-        <v>57</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="K25" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
-        <v>39597</v>
-      </c>
-      <c r="B26" s="1">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G26" s="1">
-        <v>57</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
-        <v>39597</v>
-      </c>
-      <c r="B27" s="1">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.5</v>
-      </c>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G27" s="1">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="H27" s="1">
-        <v>3</v>
+        <v>11.25</v>
       </c>
       <c r="I27" s="1">
         <v>0.02</v>
       </c>
       <c r="J27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="1">
-        <v>88</v>
+        <v>0.78</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>39511</v>
+      <c r="A28" s="3">
+        <v>42138</v>
       </c>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D28" s="1">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H28" s="1">
         <v>5</v>
       </c>
       <c r="I28" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J28" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K28" s="1">
-        <v>89</v>
+        <v>0.71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <v>39511</v>
+      <c r="A29" s="3">
+        <v>42075</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="C29" s="1">
         <v>7.1</v>
       </c>
       <c r="D29" s="1">
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="G29" s="1">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H29" s="1">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="I29" s="1">
         <v>0.02</v>
       </c>
       <c r="J29" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K29" s="1">
-        <v>89</v>
+        <v>0.71</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>39457</v>
+      <c r="A30" s="3">
+        <v>42019</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
+        <v>29.9</v>
       </c>
       <c r="C30" s="1">
-        <v>7.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D30" s="1">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="G30" s="1">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="H30" s="1">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="I30" s="1">
         <v>0.02</v>
       </c>
       <c r="J30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="1">
-        <v>88</v>
+        <v>0.77</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
-        <v>39457</v>
+      <c r="A31" s="3">
+        <v>41968</v>
       </c>
       <c r="B31" s="1">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="C31" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>120</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>41892</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G32" s="1">
+        <v>110</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>41836</v>
+      </c>
+      <c r="B33" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C33" s="1">
         <v>7.3</v>
       </c>
-      <c r="D31" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1">
-        <v>44</v>
-      </c>
-      <c r="H31" s="1">
-        <v>6</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>39391</v>
-      </c>
-      <c r="B32" s="1">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="G32" s="1">
-        <v>62</v>
-      </c>
-      <c r="H32" s="1">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K32" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>39391</v>
-      </c>
-      <c r="B33" s="1">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>7.1</v>
-      </c>
       <c r="D33" s="1">
-        <v>8.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E33" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="G33" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H33" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1">
         <v>0.02</v>
       </c>
       <c r="J33" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K33" s="1">
-        <v>81</v>
+        <v>0.84</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <v>39351</v>
+      <c r="A34" s="3">
+        <v>41780</v>
       </c>
       <c r="B34" s="1">
-        <v>18</v>
+        <v>21.6</v>
       </c>
       <c r="C34" s="1">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="D34" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G34" s="1">
+        <v>64</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>41711</v>
+      </c>
+      <c r="B35" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
         <v>7.9</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <v>41653</v>
+      </c>
+      <c r="B36" s="1">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <v>41604</v>
+      </c>
+      <c r="B37" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>56</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <v>41529</v>
+      </c>
+      <c r="B38" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F38" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G38" s="1">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <v>41478</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
         <v>7.8</v>
       </c>
-      <c r="G34" s="1">
-        <v>62</v>
-      </c>
-      <c r="H34" s="1">
-        <v>15</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K34" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>39351</v>
-      </c>
-      <c r="B35" s="1">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G35" s="1">
-        <v>62</v>
-      </c>
-      <c r="H35" s="1">
-        <v>15</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K35" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>39289</v>
-      </c>
-      <c r="B36" s="1">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G36" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>248</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="K36" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
-        <v>39289</v>
-      </c>
-      <c r="B37" s="1">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G37" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>248</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="K37" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <v>39224</v>
-      </c>
-      <c r="B38" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="G38" s="1">
-        <v>180</v>
-      </c>
-      <c r="H38" s="1">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="K38" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
-        <v>39224</v>
-      </c>
-      <c r="B39" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>6.8</v>
-      </c>
       <c r="G39" s="1">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="H39" s="1">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="I39" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J39" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="K39" s="1">
-        <v>81</v>
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
-        <v>39147</v>
+      <c r="A40" s="3">
+        <v>41410</v>
       </c>
       <c r="B40" s="1">
         <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D40" s="1">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
-        <v>55.6</v>
+        <v>52</v>
       </c>
       <c r="H40" s="1">
-        <v>56</v>
+        <v>2.5</v>
       </c>
       <c r="I40" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J40" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="K40" s="1">
-        <v>81</v>
+        <v>0.74</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <v>39147</v>
+      <c r="A41" s="3">
+        <v>41347</v>
       </c>
       <c r="B41" s="1">
-        <v>22</v>
+        <v>25.6</v>
       </c>
       <c r="C41" s="1">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D41" s="1">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="G41" s="1">
-        <v>55.6</v>
+        <v>52</v>
       </c>
       <c r="H41" s="1">
-        <v>56</v>
+        <v>16.25</v>
       </c>
       <c r="I41" s="1">
-        <v>0.02</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J41" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="K41" s="1">
-        <v>81</v>
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
-        <v>39093</v>
+      <c r="A42" s="3">
+        <v>41290</v>
       </c>
       <c r="B42" s="1">
         <v>22.8</v>
       </c>
       <c r="C42" s="1">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D42" s="1">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="G42" s="1">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H42" s="1">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="I42" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J42" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K42" s="1">
-        <v>79</v>
+        <v>0.72</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <v>39093</v>
+      <c r="A43" s="3">
+        <v>41219</v>
       </c>
       <c r="B43" s="1">
-        <v>22.8</v>
+        <v>24.4</v>
       </c>
       <c r="C43" s="1">
-        <v>6.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D43" s="1">
-        <v>2.2000000000000002</v>
+        <v>7.5</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="G43" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H43" s="1">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="I43" s="1">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J43" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K43" s="1">
-        <v>79</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>39034</v>
+      <c r="A44" s="3">
+        <v>41177</v>
       </c>
       <c r="B44" s="1">
-        <v>16.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C44" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>60</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I44" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <v>41114</v>
+      </c>
+      <c r="B45" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G45" s="1">
+        <v>84</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <v>41039</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
         <v>7.3</v>
       </c>
-      <c r="D44" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G44" s="1">
-        <v>60.8</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="K44" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
-        <v>39034</v>
-      </c>
-      <c r="B45" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G45" s="1">
-        <v>60.8</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="K45" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
-        <v>38987</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C46" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>7.9</v>
-      </c>
       <c r="G46" s="1">
-        <v>20.8</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I46" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J46" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="K46" s="1">
-        <v>91</v>
+        <v>0.63</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
-        <v>38987</v>
+      <c r="A47" s="3">
+        <v>40990</v>
       </c>
       <c r="B47" s="1">
-        <v>20.100000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="C47" s="1">
         <v>7.1</v>
       </c>
       <c r="D47" s="1">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="G47" s="1">
-        <v>20.8</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I47" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J47" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="K47" s="1">
-        <v>91</v>
+        <v>0.68</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>38916</v>
+      <c r="A48" s="3">
+        <v>40913</v>
       </c>
       <c r="B48" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G48" s="1">
+        <v>72</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I48" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>40808</v>
+      </c>
+      <c r="B49" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G49" s="1">
+        <v>49</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
+        <v>40749</v>
+      </c>
+      <c r="B50" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D50" s="1">
         <v>7.4</v>
       </c>
-      <c r="D48" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G48" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="K48" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
-        <v>38916</v>
-      </c>
-      <c r="B49" s="1">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G49" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="K49" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
-        <v>38839</v>
-      </c>
-      <c r="B50" s="1">
-        <v>26.1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
-        <v>6.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G50" s="1">
-        <v>62.8</v>
+        <v>66</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I50" s="1">
-        <v>0.02</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J50" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="K50" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
-        <v>38839</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
+        <v>40681</v>
       </c>
       <c r="B51" s="1">
-        <v>26.1</v>
+        <v>21.2</v>
       </c>
       <c r="C51" s="1">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="G51" s="1">
-        <v>62.8</v>
+        <v>54</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1">
         <v>0.02</v>
       </c>
       <c r="J51" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="K51" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
-        <v>38783</v>
+        <v>0.02</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>40603</v>
       </c>
       <c r="B52" s="1">
-        <v>22</v>
+        <v>26.2</v>
       </c>
       <c r="C52" s="1">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>60</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
+        <v>40554</v>
+      </c>
+      <c r="B53" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>76</v>
+      </c>
+      <c r="H53" s="1">
+        <v>23.75</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>40500</v>
+      </c>
+      <c r="B54" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="C54" s="1">
         <v>7.3</v>
       </c>
-      <c r="D52" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="H52" s="1">
-        <v>37</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="D54" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>42</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
         <v>0.03</v>
       </c>
-      <c r="J52" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K52" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2">
-        <v>38783</v>
-      </c>
-      <c r="B53" s="1">
-        <v>22</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="G53" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="H53" s="1">
-        <v>37</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K53" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
-        <v>38729</v>
-      </c>
-      <c r="B54" s="1">
-        <v>26</v>
-      </c>
-      <c r="C54" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G54" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="H54" s="1">
-        <v>10</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.02</v>
-      </c>
       <c r="J54" s="1">
-        <v>0.24</v>
+        <v>0.86</v>
       </c>
       <c r="K54" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
-        <v>38729</v>
+        <v>40444</v>
       </c>
       <c r="B55" s="1">
-        <v>26</v>
+        <v>21.1</v>
       </c>
       <c r="C55" s="1">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="D55" s="1">
-        <v>2.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="G55" s="1">
-        <v>54.8</v>
+        <v>88</v>
       </c>
       <c r="H55" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1">
         <v>0.02</v>
       </c>
       <c r="J55" s="1">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="K55" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
-        <v>38672</v>
+        <v>40386</v>
       </c>
       <c r="B56" s="1">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="C56" s="1">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D56" s="1">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="G56" s="1">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I56" s="1">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J56" s="1">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K56" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
-        <v>38672</v>
+        <v>40318</v>
       </c>
       <c r="B57" s="1">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="C57" s="1">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D57" s="1">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="G57" s="1">
         <v>56</v>
@@ -4568,278 +4272,286 @@
         <v>0.02</v>
       </c>
       <c r="J57" s="1">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K57" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
-        <v>38623</v>
+        <v>40239</v>
       </c>
       <c r="B58" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="D58" s="1">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="G58" s="1">
-        <v>64.8</v>
+        <v>54</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J58" s="1">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="K58" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
-        <v>38623</v>
+        <v>40190</v>
       </c>
       <c r="B59" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="D59" s="1">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="G59" s="1">
-        <v>64.8</v>
+        <v>56</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J59" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K59" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
-        <v>38552</v>
+        <v>40120</v>
       </c>
       <c r="B60" s="1">
-        <v>18</v>
+        <v>26.5</v>
       </c>
       <c r="C60" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D60" s="1">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G60" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H60" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1">
         <v>0.02</v>
       </c>
       <c r="J60" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="K60" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
-        <v>38552</v>
+        <v>40080</v>
       </c>
       <c r="B61" s="1">
-        <v>18</v>
+        <v>20.3</v>
       </c>
       <c r="C61" s="1">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D61" s="1">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>80</v>
+      </c>
+      <c r="H61" s="1">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K61" s="1">
+        <v>84</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>40022</v>
+      </c>
+      <c r="B62" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E62" s="1">
         <v>8</v>
       </c>
-      <c r="G61" s="1">
-        <v>62</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="K61" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
-        <v>38475</v>
-      </c>
-      <c r="B62" s="1">
-        <v>21</v>
-      </c>
-      <c r="C62" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
       <c r="F62" s="1">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="G62" s="1">
-        <v>64.400000000000006</v>
+        <v>84</v>
       </c>
       <c r="H62" s="1">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="I62" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J62" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="K62" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
-        <v>38475</v>
+        <v>39954</v>
       </c>
       <c r="B63" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D63" s="1">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="G63" s="1">
-        <v>64.400000000000006</v>
+        <v>54</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J63" s="1">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="K63" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
-        <v>38419</v>
+        <v>39875</v>
       </c>
       <c r="B64" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D64" s="1">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G64" s="1">
-        <v>60.2</v>
+        <v>65</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I64" s="1">
         <v>0.02</v>
       </c>
       <c r="J64" s="1">
-        <v>0.31</v>
+        <v>0.66</v>
       </c>
       <c r="K64" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
-        <v>38419</v>
+        <v>39826</v>
       </c>
       <c r="B65" s="1">
         <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D65" s="1">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="G65" s="1">
-        <v>60.2</v>
+        <v>57</v>
       </c>
       <c r="H65" s="1">
         <v>1</v>
@@ -4848,1553 +4560,1598 @@
         <v>0.02</v>
       </c>
       <c r="J65" s="1">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="K65" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
-        <v>38365</v>
+        <v>39755</v>
       </c>
       <c r="B66" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1">
         <v>6.8</v>
       </c>
       <c r="D66" s="1">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="G66" s="1">
-        <v>63.8</v>
+        <v>60</v>
       </c>
       <c r="H66" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <v>0.02</v>
       </c>
       <c r="J66" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="K66" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
-        <v>38365</v>
+        <v>39715</v>
       </c>
       <c r="B67" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D67" s="1">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="1">
-        <v>63.8</v>
+        <v>62</v>
       </c>
       <c r="H67" s="1">
-        <v>49</v>
+        <v>9700</v>
       </c>
       <c r="I67" s="1">
         <v>0.02</v>
       </c>
       <c r="J67" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="K67" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
-        <v>38308</v>
+        <v>39653</v>
       </c>
       <c r="B68" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
         <v>6.7</v>
       </c>
       <c r="D68" s="1">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="K68" s="1">
+        <v>90</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2">
+        <v>39597</v>
+      </c>
+      <c r="B69" s="1">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G69" s="1">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="1">
+        <v>88</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2">
+        <v>39511</v>
+      </c>
+      <c r="B70" s="1">
+        <v>26</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
         <v>7.2</v>
       </c>
-      <c r="G68" s="1">
-        <v>49</v>
-      </c>
-      <c r="H68" s="1">
-        <v>24</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="K68" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2">
-        <v>38308</v>
-      </c>
-      <c r="B69" s="1">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D69" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2</v>
-      </c>
-      <c r="F69" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="G69" s="1">
-        <v>49</v>
-      </c>
-      <c r="H69" s="1">
-        <v>24</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="K69" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
-        <v>38245</v>
-      </c>
-      <c r="B70" s="1">
-        <v>21</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D70" s="1">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1">
-        <v>2</v>
-      </c>
-      <c r="F70" s="1">
-        <v>7.8</v>
-      </c>
       <c r="G70" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H70" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70" s="1">
         <v>0.02</v>
       </c>
       <c r="J70" s="1">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K70" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
-        <v>38245</v>
+        <v>39457</v>
       </c>
       <c r="B71" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="D71" s="1">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
       </c>
       <c r="F71" s="1">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="G71" s="1">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H71" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I71" s="1">
         <v>0.02</v>
       </c>
       <c r="J71" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K71" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
-        <v>38188</v>
+        <v>39391</v>
       </c>
       <c r="B72" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="D72" s="1">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G72" s="1">
+        <v>62</v>
+      </c>
+      <c r="H72" s="1">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K72" s="1">
+        <v>81</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2">
+        <v>39351</v>
+      </c>
+      <c r="B73" s="1">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D73" s="1">
         <v>7.9</v>
       </c>
-      <c r="G72" s="1">
-        <v>57.8</v>
-      </c>
-      <c r="H72" s="1">
-        <v>48</v>
-      </c>
-      <c r="I72" s="1">
+      <c r="E73" s="1">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G73" s="1">
+        <v>62</v>
+      </c>
+      <c r="H73" s="1">
+        <v>15</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K73" s="1">
+        <v>83</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2">
+        <v>39289</v>
+      </c>
+      <c r="B74" s="1">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G74" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>248</v>
+      </c>
+      <c r="I74" s="1">
         <v>0.13</v>
       </c>
-      <c r="J72" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K72" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2">
-        <v>38188</v>
-      </c>
-      <c r="B73" s="1">
-        <v>17</v>
-      </c>
-      <c r="C73" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="D73" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G73" s="1">
-        <v>57.8</v>
-      </c>
-      <c r="H73" s="1">
-        <v>48</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K73" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
-        <v>38111</v>
-      </c>
-      <c r="B74" s="1">
-        <v>22</v>
-      </c>
-      <c r="C74" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D74" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G74" s="1">
-        <v>57</v>
-      </c>
-      <c r="H74" s="1">
-        <v>4</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0.03</v>
-      </c>
       <c r="J74" s="1">
-        <v>0.94</v>
+        <v>0.38</v>
       </c>
       <c r="K74" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
-        <v>38111</v>
+        <v>39224</v>
       </c>
       <c r="B75" s="1">
-        <v>22</v>
+        <v>19.8</v>
       </c>
       <c r="C75" s="1">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D75" s="1">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G75" s="1">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="H75" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I75" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J75" s="1">
-        <v>0.94</v>
+        <v>0.32</v>
       </c>
       <c r="K75" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2">
-        <v>38069</v>
+        <v>39147</v>
       </c>
       <c r="B76" s="1">
         <v>22</v>
       </c>
       <c r="C76" s="1">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="D76" s="1">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="1">
         <v>6.9</v>
       </c>
       <c r="G76" s="1">
-        <v>169</v>
+        <v>55.6</v>
       </c>
       <c r="H76" s="1">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I76" s="1">
         <v>0.02</v>
       </c>
       <c r="J76" s="1">
-        <v>1.02</v>
+        <v>0.17</v>
       </c>
       <c r="K76" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2">
-        <v>38069</v>
+        <v>39093</v>
       </c>
       <c r="B77" s="1">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="C77" s="1">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="D77" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>72</v>
+      </c>
+      <c r="H77" s="1">
         <v>5</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2</v>
-      </c>
-      <c r="F77" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G77" s="1">
-        <v>169</v>
-      </c>
-      <c r="H77" s="1">
-        <v>15</v>
       </c>
       <c r="I77" s="1">
         <v>0.02</v>
       </c>
       <c r="J77" s="1">
-        <v>1.02</v>
+        <v>0.46</v>
       </c>
       <c r="K77" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
-        <v>38001</v>
+        <v>39034</v>
       </c>
       <c r="B78" s="1">
-        <v>26</v>
+        <v>16.8</v>
       </c>
       <c r="C78" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="D78" s="1">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="E78" s="1">
         <v>2</v>
       </c>
       <c r="F78" s="1">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="G78" s="1">
-        <v>270</v>
+        <v>60.8</v>
       </c>
       <c r="H78" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J78" s="1">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="K78" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2">
-        <v>38001</v>
+        <v>38987</v>
       </c>
       <c r="B79" s="1">
-        <v>26</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="D79" s="1">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
       </c>
       <c r="F79" s="1">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="G79" s="1">
-        <v>270</v>
+        <v>20.8</v>
       </c>
       <c r="H79" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J79" s="1">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="K79" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
-        <v>37937</v>
+        <v>38916</v>
       </c>
       <c r="B80" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C80" s="1">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="D80" s="1">
-        <v>4.5999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="E80" s="1">
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <v>7.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G80" s="1">
-        <v>61.4</v>
+        <v>58.4</v>
       </c>
       <c r="H80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J80" s="1">
-        <v>0.36</v>
+        <v>0.69</v>
       </c>
       <c r="K80" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
-        <v>37937</v>
+        <v>38839</v>
       </c>
       <c r="B81" s="1">
-        <v>23</v>
+        <v>26.1</v>
       </c>
       <c r="C81" s="1">
         <v>7.2</v>
       </c>
       <c r="D81" s="1">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
         <v>2</v>
       </c>
       <c r="F81" s="1">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="G81" s="1">
-        <v>61.4</v>
+        <v>62.8</v>
       </c>
       <c r="H81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J81" s="1">
-        <v>0.36</v>
+        <v>0.74</v>
       </c>
       <c r="K81" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
-        <v>37873</v>
+        <v>38783</v>
       </c>
       <c r="B82" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G82" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="H82" s="1">
+        <v>37</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K82" s="1">
+        <v>81</v>
+      </c>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2">
+        <v>38729</v>
+      </c>
+      <c r="B83" s="1">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G83" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="H83" s="1">
+        <v>10</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="K83" s="1">
+        <v>87</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2">
+        <v>38672</v>
+      </c>
+      <c r="B84" s="1">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
         <v>7.8</v>
       </c>
-      <c r="D82" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="E82" s="1">
-        <v>2</v>
-      </c>
-      <c r="F82" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G82" s="1">
-        <v>57.6</v>
-      </c>
-      <c r="H82" s="1">
-        <v>1</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K82" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2">
-        <v>37873</v>
-      </c>
-      <c r="B83" s="1">
-        <v>20</v>
-      </c>
-      <c r="C83" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="D83" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2</v>
-      </c>
-      <c r="F83" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G83" s="1">
-        <v>57.6</v>
-      </c>
-      <c r="H83" s="1">
-        <v>1</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K83" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
-        <v>37824</v>
-      </c>
-      <c r="B84" s="1">
-        <v>20</v>
-      </c>
-      <c r="C84" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="D84" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="E84" s="1">
-        <v>3</v>
-      </c>
-      <c r="F84" s="1">
-        <v>8.5</v>
-      </c>
       <c r="G84" s="1">
-        <v>1515</v>
+        <v>56</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
       </c>
       <c r="I84" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J84" s="1">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="K84" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2">
-        <v>37824</v>
+        <v>38623</v>
       </c>
       <c r="B85" s="1">
         <v>20</v>
       </c>
       <c r="C85" s="1">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D85" s="1">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="E85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" s="1">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G85" s="1">
-        <v>1515</v>
+        <v>64.8</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
       </c>
       <c r="I85" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J85" s="1">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="K85" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
-        <v>37747</v>
+        <v>38552</v>
       </c>
       <c r="B86" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1">
         <v>6.9</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E86" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" s="1">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="G86" s="1">
-        <v>57.5</v>
+        <v>62</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
       </c>
       <c r="I86" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J86" s="1">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="K86" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2">
-        <v>37637</v>
+        <v>38475</v>
       </c>
       <c r="B87" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C87" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D87" s="1">
-        <v>14</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G87" s="1">
-        <v>87.5</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H87" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I87" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="K87" s="1">
+        <v>91</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2">
+        <v>38419</v>
+      </c>
+      <c r="B88" s="1">
+        <v>26</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G88" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="K88" s="1">
+        <v>92</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2">
+        <v>38365</v>
+      </c>
+      <c r="B89" s="1">
+        <v>26</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G89" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="H89" s="1">
+        <v>49</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K89" s="1">
+        <v>82</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2">
+        <v>38308</v>
+      </c>
+      <c r="B90" s="1">
+        <v>22</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>49</v>
+      </c>
+      <c r="H90" s="1">
+        <v>24</v>
+      </c>
+      <c r="I90" s="1">
         <v>0.03</v>
       </c>
-      <c r="J87" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="K87" s="1">
+      <c r="J90" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K90" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
-        <v>37637</v>
-      </c>
-      <c r="B88" s="1">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1">
-        <v>7</v>
-      </c>
-      <c r="D88" s="1">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1">
-        <v>2</v>
-      </c>
-      <c r="F88" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="G88" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="H88" s="1">
-        <v>15</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="K88" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2">
-        <v>37579</v>
-      </c>
-      <c r="B89" s="1">
-        <v>25</v>
-      </c>
-      <c r="C89" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D89" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>2</v>
-      </c>
-      <c r="F89" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G89" s="1">
-        <v>59</v>
-      </c>
-      <c r="H89" s="1">
-        <v>5</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K89" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
-        <v>37579</v>
-      </c>
-      <c r="B90" s="1">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="D90" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>2</v>
-      </c>
-      <c r="F90" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G90" s="1">
-        <v>59</v>
-      </c>
-      <c r="H90" s="1">
-        <v>5</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K90" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
-        <v>37517</v>
+        <v>38245</v>
       </c>
       <c r="B91" s="1">
         <v>21</v>
       </c>
       <c r="C91" s="1">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="D91" s="1">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
       </c>
       <c r="F91" s="1">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="G91" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J91" s="1">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="K91" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
-        <v>37517</v>
+        <v>38188</v>
       </c>
       <c r="B92" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1">
         <v>7.4</v>
       </c>
       <c r="D92" s="1">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="E92" s="1">
         <v>2</v>
       </c>
       <c r="F92" s="1">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="G92" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="H92" s="1">
+        <v>48</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K92" s="1">
+        <v>80</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="2">
+        <v>38111</v>
+      </c>
+      <c r="B93" s="1">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G93" s="1">
         <v>57</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H93" s="1">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K93" s="1">
+        <v>87</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="2">
+        <v>38069</v>
+      </c>
+      <c r="B94" s="1">
+        <v>22</v>
+      </c>
+      <c r="C94" s="1">
+        <v>8</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G94" s="1">
+        <v>169</v>
+      </c>
+      <c r="H94" s="1">
+        <v>15</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K94" s="1">
+        <v>83</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2">
+        <v>38001</v>
+      </c>
+      <c r="B95" s="1">
+        <v>26</v>
+      </c>
+      <c r="C95" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D95" s="1">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>270</v>
+      </c>
+      <c r="H95" s="1">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="K95" s="1">
+        <v>84</v>
+      </c>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="2">
+        <v>37937</v>
+      </c>
+      <c r="B96" s="1">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G96" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="K96" s="1">
+        <v>91</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2">
+        <v>37873</v>
+      </c>
+      <c r="B97" s="1">
+        <v>20</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G97" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="H97" s="1">
         <v>1</v>
       </c>
-      <c r="I92" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J92" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="K92" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2">
-        <v>37460</v>
-      </c>
-      <c r="B93" s="1">
-        <v>18</v>
-      </c>
-      <c r="C93" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="D93" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="E93" s="1">
-        <v>2</v>
-      </c>
-      <c r="F93" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G93" s="1">
-        <v>56</v>
-      </c>
-      <c r="H93" s="1">
+      <c r="I97" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K97" s="1">
+        <v>91</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="2">
+        <v>37824</v>
+      </c>
+      <c r="B98" s="1">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1515</v>
+      </c>
+      <c r="H98" s="1">
         <v>1</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I98" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J93" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K93" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
-        <v>37460</v>
-      </c>
-      <c r="B94" s="1">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="D94" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="E94" s="1">
-        <v>2</v>
-      </c>
-      <c r="F94" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G94" s="1">
-        <v>56</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="K94" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2">
-        <v>37383</v>
-      </c>
-      <c r="B95" s="1">
-        <v>24</v>
-      </c>
-      <c r="C95" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="E95" s="1">
-        <v>2</v>
-      </c>
-      <c r="F95" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G95" s="1">
-        <v>52</v>
-      </c>
-      <c r="H95" s="1">
-        <v>4</v>
-      </c>
-      <c r="I95" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K95" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2">
-        <v>37383</v>
-      </c>
-      <c r="B96" s="1">
-        <v>24</v>
-      </c>
-      <c r="C96" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D96" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="E96" s="1">
-        <v>2</v>
-      </c>
-      <c r="F96" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G96" s="1">
-        <v>52</v>
-      </c>
-      <c r="H96" s="1">
-        <v>4</v>
-      </c>
-      <c r="I96" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K96" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="2">
-        <v>37334</v>
-      </c>
-      <c r="B97" s="1">
-        <v>27</v>
-      </c>
-      <c r="C97" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="E97" s="1">
-        <v>2</v>
-      </c>
-      <c r="F97" s="1">
+      <c r="J98" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K98" s="1">
+        <v>84</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="2">
+        <v>37637</v>
+      </c>
+      <c r="B99" s="1">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1">
         <v>7</v>
       </c>
-      <c r="G97" s="1">
-        <v>48</v>
-      </c>
-      <c r="H97" s="1">
-        <v>3</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="K97" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="2">
-        <v>37334</v>
-      </c>
-      <c r="B98" s="1">
-        <v>27</v>
-      </c>
-      <c r="C98" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="D98" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="E98" s="1">
-        <v>2</v>
-      </c>
-      <c r="F98" s="1">
-        <v>7</v>
-      </c>
-      <c r="G98" s="1">
-        <v>48</v>
-      </c>
-      <c r="H98" s="1">
-        <v>3</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="K98" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="2">
-        <v>37286</v>
-      </c>
-      <c r="B99" s="1">
-        <v>26</v>
-      </c>
-      <c r="C99" s="1">
-        <v>7.1</v>
-      </c>
       <c r="D99" s="1">
-        <v>4.0999999999999996</v>
+        <v>14</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
       </c>
       <c r="F99" s="1">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G99" s="1">
-        <v>56</v>
+        <v>87.5</v>
       </c>
       <c r="H99" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I99" s="1">
         <v>0.03</v>
       </c>
       <c r="J99" s="1">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="K99" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2">
-        <v>37286</v>
+        <v>37579</v>
       </c>
       <c r="B100" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D100" s="1">
-        <v>4.0999999999999996</v>
+        <v>9.5</v>
       </c>
       <c r="E100" s="1">
         <v>2</v>
       </c>
       <c r="F100" s="1">
-        <v>7.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G100" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H100" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I100" s="1">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J100" s="1">
-        <v>0.03</v>
+        <v>0.46</v>
       </c>
       <c r="K100" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2">
-        <v>37208</v>
+        <v>37517</v>
       </c>
       <c r="B101" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="1">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="D101" s="1">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="E101" s="1">
         <v>2</v>
       </c>
       <c r="F101" s="1">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="G101" s="1">
         <v>57</v>
       </c>
       <c r="H101" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I101" s="1">
         <v>0.03</v>
       </c>
       <c r="J101" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="K101" s="1">
+        <v>93</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="2">
+        <v>37460</v>
+      </c>
+      <c r="B102" s="1">
+        <v>18</v>
+      </c>
+      <c r="C102" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>56</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K102" s="1">
+        <v>89</v>
+      </c>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="2">
+        <v>37383</v>
+      </c>
+      <c r="B103" s="1">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G103" s="1">
+        <v>52</v>
+      </c>
+      <c r="H103" s="1">
+        <v>4</v>
+      </c>
+      <c r="I103" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K103" s="1">
+        <v>86</v>
+      </c>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="2">
+        <v>37334</v>
+      </c>
+      <c r="B104" s="1">
+        <v>27</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>7</v>
+      </c>
+      <c r="G104" s="1">
+        <v>48</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="K104" s="1">
+        <v>90</v>
+      </c>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="2">
+        <v>37286</v>
+      </c>
+      <c r="B105" s="1">
+        <v>26</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G105" s="1">
+        <v>56</v>
+      </c>
+      <c r="H105" s="1">
+        <v>4</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K105" s="1">
+        <v>89</v>
+      </c>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="2">
+        <v>37208</v>
+      </c>
+      <c r="B106" s="1">
+        <v>22</v>
+      </c>
+      <c r="C106" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="D106" s="1">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G106" s="1">
+        <v>57</v>
+      </c>
+      <c r="H106" s="1">
+        <v>34</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J106" s="1">
         <v>0.18</v>
       </c>
-      <c r="K101" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2">
-        <v>37208</v>
-      </c>
-      <c r="B102" s="1">
-        <v>22</v>
-      </c>
-      <c r="C102" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="D102" s="1">
-        <v>7</v>
-      </c>
-      <c r="E102" s="1">
-        <v>2</v>
-      </c>
-      <c r="F102" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G102" s="1">
-        <v>57</v>
-      </c>
-      <c r="H102" s="1">
-        <v>34</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J102" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="K102" s="1">
+      <c r="K106" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2">
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="2">
         <v>37145</v>
-      </c>
-      <c r="B103" s="1">
-        <v>21</v>
-      </c>
-      <c r="C103" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="D103" s="1">
-        <v>12</v>
-      </c>
-      <c r="E103" s="1">
-        <v>2</v>
-      </c>
-      <c r="F103" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G103" s="1">
-        <v>69</v>
-      </c>
-      <c r="H103" s="1">
-        <v>2</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="K103" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2">
-        <v>37145</v>
-      </c>
-      <c r="B104" s="1">
-        <v>21</v>
-      </c>
-      <c r="C104" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>12</v>
-      </c>
-      <c r="E104" s="1">
-        <v>2</v>
-      </c>
-      <c r="F104" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G104" s="1">
-        <v>69</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J104" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="K104" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="2">
-        <v>37103</v>
-      </c>
-      <c r="B105" s="1">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="D105" s="1">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1">
-        <v>2</v>
-      </c>
-      <c r="F105" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="G105" s="1">
-        <v>60</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J105" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K105" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="2">
-        <v>37103</v>
-      </c>
-      <c r="B106" s="1">
-        <v>18</v>
-      </c>
-      <c r="C106" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="D106" s="1">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-      <c r="F106" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="G106" s="1">
-        <v>60</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J106" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K106" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="2">
-        <v>37019</v>
       </c>
       <c r="B107" s="1">
         <v>21</v>
       </c>
       <c r="C107" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="D107" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
       </c>
       <c r="F107" s="1">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="G107" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H107" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J107" s="1">
-        <v>0.31</v>
+        <v>0.96</v>
       </c>
       <c r="K107" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2">
-        <v>37019</v>
+        <v>37103</v>
       </c>
       <c r="B108" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="D108" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
       </c>
       <c r="F108" s="1">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="G108" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
       </c>
       <c r="I108" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K108" s="1">
+        <v>88</v>
+      </c>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2">
+        <v>37019</v>
+      </c>
+      <c r="B109" s="1">
+        <v>21</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G109" s="1">
+        <v>57</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
         <v>0.04</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J109" s="1">
         <v>0.31</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K109" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="2">
-        <v>36970</v>
-      </c>
-      <c r="B109" s="1">
-        <v>26</v>
-      </c>
-      <c r="C109" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="D109" s="1">
-        <v>2</v>
-      </c>
-      <c r="E109" s="1">
-        <v>2</v>
-      </c>
-      <c r="F109" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="G109" s="1">
-        <v>55</v>
-      </c>
-      <c r="H109" s="1">
-        <v>2</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J109" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="K109" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2">
         <v>36970</v>
       </c>
@@ -6428,8 +6185,9 @@
       <c r="K110" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2">
         <v>36900</v>
       </c>
@@ -6461,30 +6219,31 @@
         <v>0.54</v>
       </c>
       <c r="K111" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2">
-        <v>36900</v>
+        <v>36852</v>
       </c>
       <c r="B112" s="1">
         <v>25</v>
       </c>
       <c r="C112" s="1">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D112" s="1">
-        <v>2</v>
+        <v>4.87</v>
       </c>
       <c r="E112" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F112" s="1">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="G112" s="1">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -6493,91 +6252,94 @@
         <v>0.03</v>
       </c>
       <c r="J112" s="1">
-        <v>0.54</v>
+        <v>0.84</v>
       </c>
       <c r="K112" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2">
-        <v>36852</v>
+        <v>36788</v>
       </c>
       <c r="B113" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D113" s="1">
-        <v>4.87</v>
+        <v>10</v>
       </c>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="G113" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H113" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="J113" s="1">
-        <v>0.84</v>
+        <v>0.94</v>
       </c>
       <c r="K113" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2">
-        <v>36788</v>
+        <v>36725</v>
       </c>
       <c r="B114" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C114" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="D114" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E114" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F114" s="1">
         <v>8.5</v>
       </c>
       <c r="G114" s="1">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="H114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" s="1">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="J114" s="1">
-        <v>0.94</v>
+        <v>0.25</v>
       </c>
       <c r="K114" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2">
-        <v>36725</v>
+        <v>36648</v>
       </c>
       <c r="B115" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
@@ -6586,80 +6348,82 @@
         <v>2</v>
       </c>
       <c r="F115" s="1">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="G115" s="1">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="H115" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" s="1">
         <v>0.03</v>
       </c>
       <c r="J115" s="1">
-        <v>0.25</v>
+        <v>0.93</v>
       </c>
       <c r="K115" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2">
-        <v>36648</v>
+        <v>36599</v>
       </c>
       <c r="B116" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D116" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="G116" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H116" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1">
         <v>0.03</v>
       </c>
       <c r="J116" s="1">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="K116" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2">
-        <v>36599</v>
+        <v>36529</v>
       </c>
       <c r="B117" s="1">
         <v>23</v>
       </c>
       <c r="C117" s="1">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D117" s="1">
         <v>5</v>
       </c>
       <c r="E117" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="G117" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -6668,231 +6432,238 @@
         <v>0.03</v>
       </c>
       <c r="J117" s="1">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="K117" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2">
-        <v>36529</v>
+        <v>36474</v>
       </c>
       <c r="B118" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C118" s="1">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D118" s="1">
         <v>5</v>
       </c>
       <c r="E118" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" s="1">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G118" s="1">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="H118" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I118" s="1">
         <v>0.03</v>
       </c>
       <c r="J118" s="1">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="K118" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2">
-        <v>36474</v>
+        <v>36411</v>
       </c>
       <c r="B119" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D119" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
       </c>
       <c r="F119" s="1">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G119" s="1">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="H119" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="J119" s="1">
-        <v>0.53</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K119" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2">
-        <v>36411</v>
+        <v>36368</v>
       </c>
       <c r="B120" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C120" s="1">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="D120" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
       </c>
       <c r="F120" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G120" s="1">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
       </c>
       <c r="I120" s="1">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="J120" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K120" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2">
-        <v>36368</v>
+        <v>36284</v>
       </c>
       <c r="B121" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C121" s="1">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
       </c>
       <c r="E121" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F121" s="1">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="G121" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
       </c>
       <c r="I121" s="1">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="J121" s="1">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="K121" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2">
-        <v>36284</v>
+        <v>36221</v>
       </c>
       <c r="B122" s="1">
+        <v>26</v>
+      </c>
+      <c r="C122" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="D122" s="1">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G122" s="1">
         <v>25</v>
       </c>
-      <c r="C122" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="H122" s="1">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K122" s="1">
+        <v>86</v>
+      </c>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="2">
+        <v>36187</v>
+      </c>
+      <c r="B123" s="1">
+        <v>28</v>
+      </c>
+      <c r="C123" s="1">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1">
         <v>5</v>
       </c>
-      <c r="E122" s="1">
-        <v>2</v>
-      </c>
-      <c r="F122" s="1">
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
         <v>7.3</v>
       </c>
-      <c r="G122" s="1">
-        <v>56</v>
-      </c>
-      <c r="H122" s="1">
-        <v>0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>1</v>
-      </c>
-      <c r="K122" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="2">
-        <v>36221</v>
-      </c>
-      <c r="B123" s="1">
-        <v>26</v>
-      </c>
-      <c r="C123" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="D123" s="1">
-        <v>10</v>
-      </c>
-      <c r="E123" s="1">
-        <v>3</v>
-      </c>
-      <c r="F123" s="1">
-        <v>6.7</v>
-      </c>
       <c r="G123" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H123" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I123" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J123" s="1">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K123" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2">
-        <v>36187</v>
+        <v>36129</v>
       </c>
       <c r="B124" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C124" s="1">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="D124" s="1">
         <v>5</v>
@@ -6901,58 +6672,186 @@
         <v>2</v>
       </c>
       <c r="F124" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G124" s="1">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H124" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1">
         <v>0.01</v>
       </c>
       <c r="J124" s="1">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="K124" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="2">
-        <v>36129</v>
-      </c>
-      <c r="B125" s="1">
-        <v>21</v>
-      </c>
-      <c r="C125" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="D125" s="1">
-        <v>5</v>
-      </c>
-      <c r="E125" s="1">
-        <v>2</v>
-      </c>
-      <c r="F125" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="G125" s="1">
-        <v>73</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J125" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="K125" s="1">
         <v>91</v>
       </c>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L136"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L137"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L138"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L139"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L140"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L141"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L142"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L143"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L144"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L145"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L146"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L147"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L148"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L149"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L150"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L151"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L152"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L153"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L154"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L155"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L156"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L157"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L158"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L159"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L160"/>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L161"/>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L162"/>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L163"/>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L164"/>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L165"/>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L166"/>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L167"/>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L168"/>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L169"/>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L170"/>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L171"/>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L172"/>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L173"/>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L174"/>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L175"/>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L176"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L177"/>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L178"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
